--- a/results/results-s.xlsx
+++ b/results/results-s.xlsx
@@ -351,11 +351,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2102166056"/>
-        <c:axId val="-2102164648"/>
+        <c:axId val="2116199928"/>
+        <c:axId val="2116196968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2102166056"/>
+        <c:axId val="2116199928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -364,7 +364,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2102164648"/>
+        <c:crossAx val="2116196968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -372,7 +372,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2102164648"/>
+        <c:axId val="2116196968"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -408,7 +408,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2102166056"/>
+        <c:crossAx val="2116199928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -417,6 +417,11 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
@@ -650,11 +655,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2093708776"/>
-        <c:axId val="-2110309080"/>
+        <c:axId val="2116114120"/>
+        <c:axId val="2116111128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2093708776"/>
+        <c:axId val="2116114120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -663,7 +668,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110309080"/>
+        <c:crossAx val="2116111128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -671,7 +676,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2110309080"/>
+        <c:axId val="2116111128"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -702,7 +707,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2093708776"/>
+        <c:crossAx val="2116114120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -716,6 +721,11 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
